--- a/Output/May/productivity_TL_valid/productivity_TL_2022-05-03_valid.xlsx
+++ b/Output/May/productivity_TL_valid/productivity_TL_2022-05-03_valid.xlsx
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T9">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="T11">
-        <v>0.1333333333333333</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="T17">
-        <v>0.05882352941176471</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1677,13 +1677,13 @@
         <v>8.85</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H2">
-        <v>0.09090909090909091</v>
+        <v>0.07352941176470588</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.09090909090909091</v>
+        <v>0.07352941176470588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>0.09090909090909091</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="E2">
         <v>1</v>
